--- a/import/test/PublicnEUro_test.xlsx
+++ b/import/test/PublicnEUro_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE5F1F3-253F-437E-8F62-B8CB72443B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E32033-BAC1-4072-B2B0-CE2AD06BFC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,11 @@
     <sheet name="dataset_info" sheetId="1" r:id="rId1"/>
     <sheet name="participants_info" sheetId="6" r:id="rId2"/>
     <sheet name="data-controller" sheetId="2" r:id="rId3"/>
-    <sheet name="authors" sheetId="3" r:id="rId4"/>
-    <sheet name="dataset curators" sheetId="7" r:id="rId5"/>
-    <sheet name="funding" sheetId="4" r:id="rId6"/>
-    <sheet name="publications" sheetId="5" r:id="rId7"/>
+    <sheet name="DUA" sheetId="8" r:id="rId4"/>
+    <sheet name="authors" sheetId="3" r:id="rId5"/>
+    <sheet name="dataset curators" sheetId="7" r:id="rId6"/>
+    <sheet name="funding" sheetId="4" r:id="rId7"/>
+    <sheet name="publications" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t># bold fields are required</t>
   </si>
@@ -241,6 +242,44 @@
   </si>
   <si>
     <t>stuff</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>None (CCBY)</t>
+  </si>
+  <si>
+    <t>Institution of users from non EU or adequate countries must be able to sign standard contractual clauses</t>
+  </si>
+  <si>
+    <t>only users from EU and adequate countries</t>
+  </si>
+  <si>
+    <t>only users from EU and adequate countries + data controller oversight</t>
+  </si>
+  <si>
+    <t>Institution of users from non EU or adequate countries must be able to sign standard contractual clauses  + data controller oversight</t>
+  </si>
+  <si>
+    <t>i.e.</t>
+  </si>
+  <si>
+    <t>you can only process data for purpose x,y,z 
+I am adding line skips
+also 'also' some annoying "char"</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>you know</t>
   </si>
 </sst>
 </file>
@@ -250,11 +289,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,6 +463,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -733,17 +807,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,68 +830,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -826,63 +897,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -890,38 +959,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1141,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1153,29 +1237,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="81" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="73"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1183,10 +1267,10 @@
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="61" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1194,10 +1278,10 @@
       <c r="A5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1205,10 +1289,10 @@
       <c r="A6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="61">
         <v>1</v>
       </c>
     </row>
@@ -1216,10 +1300,10 @@
       <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="61" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1227,8 +1311,8 @@
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="64" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="61" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1239,7 +1323,7 @@
       <c r="B9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="61" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1258,7 +1342,7 @@
       <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="83" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="13"/>
@@ -1284,7 +1368,7 @@
       <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="79"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1308,7 +1392,7 @@
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="83" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="14"/>
@@ -1334,7 +1418,7 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="79"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1439,20 +1523,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="65">
+      <c r="C18" s="62">
         <v>45902</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="64" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="68" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1460,13 +1544,13 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="65" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1490,7 +1574,7 @@
     <hyperlink ref="C23" r:id="rId8" xr:uid="{CE0083BD-3B13-4424-9C3E-3E683DA32B28}"/>
   </hyperlinks>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1499,7 +1583,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1513,19 +1597,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="72" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="72" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="8"/>
@@ -1537,36 +1623,37 @@
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="72" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1575,7 +1662,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1599,18 +1686,20 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="51" t="s">
+        <v>77</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2616,11 +2705,124 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFF3D9F-7869-4681-B8B7-77BC7A0B111B}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="92.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="A1" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="B3" s="88"/>
+      <c r="D3" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="88"/>
+      <c r="D4" s="71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="B5" s="88"/>
+      <c r="D5" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="88"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="88"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="88"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="88"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="88"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="88"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="88"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="88"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="88"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="88"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="88"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="88"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="88"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B19"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="select from drop down menu" sqref="B1" xr:uid="{66AED4DA-A1D2-4340-9EB2-EA1AEA5D8DBF}">
+      <formula1>$D$1:$D$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2644,48 +2846,50 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3688,12 +3892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845FEB05-2599-4045-8FC7-E4172C92513F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3713,36 +3917,40 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="66"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="66"/>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3750,7 +3958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
@@ -3779,25 +3987,25 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -4808,7 +5016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
@@ -4837,30 +5045,30 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/import/test/PublicnEUro_test.xlsx
+++ b/import/test/PublicnEUro_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E32033-BAC1-4072-B2B0-CE2AD06BFC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52909986-146F-4F52-A9BB-8B6A9CE7327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_info" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t># bold fields are required</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>you know</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Content</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2706,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFF3D9F-7869-4681-B8B7-77BC7A0B111B}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2719,51 +2725,56 @@
     <col min="4" max="4" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="A2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C2" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D2" s="71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B3" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D3" s="71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.45">
-      <c r="B3" s="88"/>
-      <c r="D3" s="76" t="s">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="B4" s="88"/>
+      <c r="D4" s="76" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="88"/>
-      <c r="D4" s="71" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="88"/>
+      <c r="D5" s="71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.45">
-      <c r="B5" s="88"/>
-      <c r="D5" s="76" t="s">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="B6" s="88"/>
+      <c r="D6" s="76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="88"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="88"/>
@@ -2804,13 +2815,16 @@
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="88"/>
     </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="88"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B3:B20"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="select from drop down menu" sqref="B1" xr:uid="{66AED4DA-A1D2-4340-9EB2-EA1AEA5D8DBF}">
-      <formula1>$D$1:$D$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="select from drop down menu" sqref="B2" xr:uid="{66AED4DA-A1D2-4340-9EB2-EA1AEA5D8DBF}">
+      <formula1>$D$2:$D$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
